--- a/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>23,14%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,55; 31,02</t>
+          <t>33,17; 39,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 29,96</t>
+          <t>31,21; 37,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 14,92</t>
+          <t>11,6; 15,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,01</t>
+          <t>13,18; 17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 20,92</t>
+          <t>21,73; 25,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 17,61</t>
+          <t>21,39; 24,95</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>40,12%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 38,5</t>
+          <t>45,89; 50,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 27,77</t>
+          <t>41,16; 45,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,03; 33,23</t>
+          <t>32,04; 36,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,55</t>
+          <t>33,84; 38,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,38; 35,35</t>
+          <t>39,81; 43,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 24,52</t>
+          <t>38,28; 41,68</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>32,01%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 26,04</t>
+          <t>30,74; 39,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 17,35</t>
+          <t>29,06; 38,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 22,42</t>
+          <t>24,94; 33,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,24</t>
+          <t>26,03; 35,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 22,69</t>
+          <t>29,25; 35,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 15,56</t>
+          <t>29,11; 35,5</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>33,39%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,36; 33,65</t>
+          <t>40,34; 43,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 25,04</t>
+          <t>37,8; 41,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,42; 25,48</t>
+          <t>24,12; 27,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,95; 17,87</t>
+          <t>25,93; 29,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 29,0</t>
+          <t>32,55; 35,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,88</t>
+          <t>32,17; 34,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,17; 39,23</t>
+          <t>33,34; 39,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,21; 37,43</t>
+          <t>31,14; 37,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 15,24</t>
+          <t>11,63; 15,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 17,0</t>
+          <t>13,17; 17,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,73; 25,2</t>
+          <t>21,79; 25,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,39; 24,95</t>
+          <t>21,37; 24,96</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,89; 50,76</t>
+          <t>45,89; 50,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,16; 45,82</t>
+          <t>41,34; 45,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,04; 36,74</t>
+          <t>32,2; 36,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,84; 38,49</t>
+          <t>33,82; 38,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,81; 43,3</t>
+          <t>39,82; 43,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,28; 41,68</t>
+          <t>38,57; 41,78</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,74; 39,27</t>
+          <t>30,82; 39,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,06; 38,29</t>
+          <t>29,06; 38,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,94; 33,41</t>
+          <t>24,39; 32,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,03; 35,18</t>
+          <t>26,36; 35,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,25; 35,27</t>
+          <t>29,41; 35,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,11; 35,5</t>
+          <t>28,89; 35,37</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,34; 43,77</t>
+          <t>40,56; 43,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,8; 41,14</t>
+          <t>37,72; 41,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 27,05</t>
+          <t>24,15; 27,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,93; 29,01</t>
+          <t>25,97; 28,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,55; 35,01</t>
+          <t>32,66; 35,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,17; 34,53</t>
+          <t>32,22; 34,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 39,48</t>
+          <t>33,29; 39,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 37,53</t>
+          <t>31,14; 37,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 15,29</t>
+          <t>11,63; 15,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 17,14</t>
+          <t>13,07; 16,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,79; 25,21</t>
+          <t>21,76; 25,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 24,96</t>
+          <t>21,31; 24,86</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,89; 50,73</t>
+          <t>45,93; 50,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,34; 45,9</t>
+          <t>41,38; 45,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,2; 36,77</t>
+          <t>32,37; 36,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,82; 38,53</t>
+          <t>34,11; 38,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,82; 43,24</t>
+          <t>39,76; 43,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 41,78</t>
+          <t>38,42; 41,83</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 39,33</t>
+          <t>31,05; 39,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,06; 38,22</t>
+          <t>29,55; 38,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 32,76</t>
+          <t>25,36; 33,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 35,36</t>
+          <t>25,95; 35,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,41; 35,57</t>
+          <t>29,4; 34,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,89; 35,37</t>
+          <t>28,85; 35,19</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,56; 43,96</t>
+          <t>40,64; 44,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,72; 41,27</t>
+          <t>37,77; 41,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 27,09</t>
+          <t>24,13; 27,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 28,97</t>
+          <t>25,95; 29,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,66; 35,01</t>
+          <t>32,66; 34,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,22; 34,56</t>
+          <t>32,21; 34,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>29,88%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>13,42%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>14,95%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>23,49%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>23,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,7%</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>26,94; 33,72</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>11,63; 15,47</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>13,07; 16,97</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 16,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>21,76; 25,28</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>21,31; 24,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 22,75</t>
         </is>
       </c>
     </row>
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>39,23%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>34,52%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>36,27%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>41,63%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>40,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
         </is>
       </c>
     </row>
@@ -729,22 +805,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>37,0; 41,39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>32,37; 36,81</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>34,11; 38,53</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31,25; 35,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>39,76; 43,27</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>38,42; 41,83</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34,9; 37,82</t>
         </is>
       </c>
     </row>
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>29,12%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>30,4%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>32,26%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>32,01%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
         </is>
       </c>
     </row>
@@ -809,22 +915,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>21,79; 29,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>25,36; 33,69</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>25,95; 35,27</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 26,18</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>29,4; 34,82</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>28,85; 35,19</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,33; 26,43</t>
         </is>
       </c>
     </row>
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>34,93%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>25,55%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>27,48%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26,09%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>33,79%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>33,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30,41%</t>
         </is>
       </c>
     </row>
@@ -889,22 +1025,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>33,15; 36,57</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>24,13; 27,2</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>25,95; 29,07</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24,43; 27,65</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>32,66; 34,94</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>32,21; 34,57</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29,39; 31,52</t>
         </is>
       </c>
     </row>
@@ -917,11 +1068,11 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,29; 39,58</t>
+          <t>33,32; 39,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 37,44</t>
+          <t>31,24; 37,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,94; 33,72</t>
+          <t>26,72; 33,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 15,47</t>
+          <t>11,61; 15,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 16,97</t>
+          <t>13,05; 16,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 16,19</t>
+          <t>11,76; 16,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,76; 25,28</t>
+          <t>21,84; 25,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 24,86</t>
+          <t>21,38; 24,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 22,75</t>
+          <t>18,78; 22,56</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,93; 50,42</t>
+          <t>45,85; 50,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,38; 45,83</t>
+          <t>41,26; 45,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,0; 41,39</t>
+          <t>37,18; 41,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,37; 36,81</t>
+          <t>32,29; 37,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,11; 38,53</t>
+          <t>33,96; 38,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,25; 35,4</t>
+          <t>31,3; 35,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,76; 43,27</t>
+          <t>39,96; 43,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,42; 41,83</t>
+          <t>38,36; 41,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,9; 37,82</t>
+          <t>34,95; 37,82</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,05; 39,16</t>
+          <t>31,12; 39,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,55; 38,24</t>
+          <t>29,41; 38,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,79; 29,61</t>
+          <t>21,83; 29,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,36; 33,69</t>
+          <t>24,79; 33,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 35,27</t>
+          <t>26,2; 35,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 26,18</t>
+          <t>18,37; 25,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 34,82</t>
+          <t>29,69; 35,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,85; 35,19</t>
+          <t>28,65; 35,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,33; 26,43</t>
+          <t>21,36; 26,85</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,64; 44,04</t>
+          <t>40,46; 44,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,77; 41,22</t>
+          <t>37,67; 41,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,15; 36,57</t>
+          <t>33,27; 36,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,13; 27,2</t>
+          <t>24,11; 27,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 29,07</t>
+          <t>25,92; 28,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,43; 27,65</t>
+          <t>24,63; 27,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,66; 34,94</t>
+          <t>32,61; 34,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 34,57</t>
+          <t>32,25; 34,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,39; 31,52</t>
+          <t>29,38; 31,5</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>374599</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>335005</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>225165</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>176541</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>200037</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>136215</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>551140</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>535042</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>361381</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>343415; 403370</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>304493; 367080</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>201325; 251110</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>152741; 202332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>174531; 227111</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>116721; 158762</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>512316; 598216</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>494288; 576840</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>327859; 393831</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1338</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>817807</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>854986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>814615</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>548055</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>636811</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>661912</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1365862</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1491796</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1476527</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>776435; 856802</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>809829; 901014</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>771960; 861452</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>512636; 587509</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>596326; 674362</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>621697; 700932</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1310990; 1421728</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1426527; 1552200</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1419959; 1536556</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>192876</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>161436</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>139294</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>138734</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>139422</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>121996</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>331609</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>300858</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>261290</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>171606; 215756</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>141496; 185384</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>119147; 162089</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>118092; 160162</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>120165; 161618</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>100729; 140995</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>305186; 364147</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>269212; 330702</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>233695; 293782</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2164</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1385281</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1351427</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1179074</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>863330</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>976270</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>920123</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2248611</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2327697</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2099197</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1325414; 1442511</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1287856; 1408934</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1123252; 1230497</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>814610; 918767</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>920751; 1029355</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>868743; 974982</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2170312; 2328069</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2248048; 2420260</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2027632; 2174506</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>